--- a/biology/Botanique/Gentianella_ciliata/Gentianella_ciliata.xlsx
+++ b/biology/Botanique/Gentianella_ciliata/Gentianella_ciliata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gentianopsis ciliata
 La Gentiane ciliée (Gentianopsis ciliata) est une espèce de plantes herbacées bisannuelle de la famille des Gentianaceae.
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 C'est une espèce de plantes aux tiges non ramifiées, aux feuilles basales ovales, aux caulinaires étroites et lancéolées, aux fleurs bleues terminales à quatre pétales bordés de cils bleutés.
@@ -547,7 +561,9 @@
           <t>Caractéristiques[1]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Organes reproducteurs
 Type d'inflorescence : cyme unipare hélicoïde
@@ -587,9 +603,11 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est protégée en Alsace. Elle fait entre autres partie des espèces patrimoniales de la Réserve naturelle régionale du Bastberg[2]. Elle est aussi protégée en Auvergne (Article 1) et en Bourgogne (Article 1).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est protégée en Alsace. Elle fait entre autres partie des espèces patrimoniales de la Réserve naturelle régionale du Bastberg. Elle est aussi protégée en Auvergne (Article 1) et en Bourgogne (Article 1).
 			Illustration de Gentiane ciliée par Jacob Sturm (1796)
 			Petit plant de Gentiane ciliée
 </t>
